--- a/public/sheets/u_1report.xlsx
+++ b/public/sheets/u_1report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Bank Name</t>
   </si>
@@ -25,25 +25,133 @@
     <t>Status</t>
   </si>
   <si>
+    <t>First Bank of Nigeria</t>
+  </si>
+  <si>
+    <t>3143563245</t>
+  </si>
+  <si>
+    <t>ALABI DAVID OLUFEMI</t>
+  </si>
+  <si>
+    <t>VERIFIED</t>
+  </si>
+  <si>
+    <t>3111623290</t>
+  </si>
+  <si>
+    <t>OLASUPO AZEEZ FATAHI</t>
+  </si>
+  <si>
+    <t>3129763579</t>
+  </si>
+  <si>
+    <t>KOSOKO ELIZABETH BOSEDE</t>
+  </si>
+  <si>
+    <t>Union Bank of Nigeria</t>
+  </si>
+  <si>
+    <t>0026535701</t>
+  </si>
+  <si>
+    <t>SUBAIR N T</t>
+  </si>
+  <si>
+    <t>0039355336</t>
+  </si>
+  <si>
+    <t>ALABI IDIAT NIKE</t>
+  </si>
+  <si>
+    <t>3108847465</t>
+  </si>
+  <si>
+    <t>SALAMI AZEEZ ENIOLA</t>
+  </si>
+  <si>
+    <t>3110564666</t>
+  </si>
+  <si>
+    <t>AJIBADE JANET OLAJUMOKE</t>
+  </si>
+  <si>
+    <t>0036560223</t>
+  </si>
+  <si>
+    <t>OLATEJU ADEOLA BOLA</t>
+  </si>
+  <si>
     <t>Guaranty Trust Bank</t>
   </si>
   <si>
-    <t>0033033067</t>
-  </si>
-  <si>
-    <t>EMANOVWE, EMMANUEL JUNIOR</t>
-  </si>
-  <si>
-    <t>VERIFIED</t>
-  </si>
-  <si>
-    <t>Access Diamond Bank</t>
-  </si>
-  <si>
-    <t>0027320995</t>
-  </si>
-  <si>
-    <t>EMMANUEL JUNIOR EMANOVWE</t>
+    <t>0158417010</t>
+  </si>
+  <si>
+    <t>ALABI REBECCA AJIBOLA</t>
+  </si>
+  <si>
+    <t>0026519509</t>
+  </si>
+  <si>
+    <t>ODEYEMI B A MRS</t>
+  </si>
+  <si>
+    <t>2022650971</t>
+  </si>
+  <si>
+    <t>RAJI SAKIRAT BUKOLA</t>
+  </si>
+  <si>
+    <t>2016429356</t>
+  </si>
+  <si>
+    <t>JIMOH SILIFAT ABIODUN</t>
+  </si>
+  <si>
+    <t>3071857555</t>
+  </si>
+  <si>
+    <t>ADETUNJI FUNMILAYO ABIGAIL</t>
+  </si>
+  <si>
+    <t>3154858789</t>
+  </si>
+  <si>
+    <t>OYEWOLE CHRISTIANAH IDOWU</t>
+  </si>
+  <si>
+    <t>0036528669</t>
+  </si>
+  <si>
+    <t>OMOTOSHO DUPE OMOWUMI</t>
+  </si>
+  <si>
+    <t>3034727901</t>
+  </si>
+  <si>
+    <t>ADEWALE FOLAKE MONSURAT</t>
+  </si>
+  <si>
+    <t>0134827150</t>
+  </si>
+  <si>
+    <t>MURAINA IDOWU MAROOF</t>
+  </si>
+  <si>
+    <t>0036574202</t>
+  </si>
+  <si>
+    <t>SALAMI, FUNMILOLA RUTH</t>
+  </si>
+  <si>
+    <t>Zenith Bank</t>
+  </si>
+  <si>
+    <t>2116926278</t>
+  </si>
+  <si>
+    <t>IDIAT OMOTAYO MUTALIB</t>
   </si>
 </sst>
 </file>
@@ -83,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -119,15 +227,253 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>7</v>
       </c>
     </row>
